--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H2">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I2">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J2">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="N2">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="O2">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="P2">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="Q2">
-        <v>9.672247325936</v>
+        <v>2.412603649605333</v>
       </c>
       <c r="R2">
-        <v>87.050225933424</v>
+        <v>21.713432846448</v>
       </c>
       <c r="S2">
-        <v>0.002833272577460817</v>
+        <v>0.0008966277872313542</v>
       </c>
       <c r="T2">
-        <v>0.003069526851765794</v>
+        <v>0.0009156219996050504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H3">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I3">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J3">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>367.061969</v>
       </c>
       <c r="O3">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="P3">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="Q3">
-        <v>12.24836848957134</v>
+        <v>3.302578889082667</v>
       </c>
       <c r="R3">
-        <v>110.235316406142</v>
+        <v>29.723210001744</v>
       </c>
       <c r="S3">
-        <v>0.003587890734253878</v>
+        <v>0.001227381050326928</v>
       </c>
       <c r="T3">
-        <v>0.003887069333746896</v>
+        <v>0.001253381958022804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H4">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I4">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J4">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="N4">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="O4">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="P4">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="Q4">
-        <v>8.383261414307334</v>
+        <v>2.438312206997333</v>
       </c>
       <c r="R4">
-        <v>75.449352728766</v>
+        <v>21.944809862976</v>
       </c>
       <c r="S4">
-        <v>0.002455692444004354</v>
+        <v>0.0009061821982640449</v>
       </c>
       <c r="T4">
-        <v>0.002660461953613066</v>
+        <v>0.0009253788118067042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H5">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I5">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J5">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="N5">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="O5">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="P5">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="Q5">
-        <v>4.261435838910001</v>
+        <v>0.502973273712</v>
       </c>
       <c r="R5">
-        <v>25.56861503346</v>
+        <v>3.017839642272</v>
       </c>
       <c r="S5">
-        <v>0.001248294103337978</v>
+        <v>0.0001869266066635829</v>
       </c>
       <c r="T5">
-        <v>0.0009015892786733516</v>
+        <v>0.000127257646788748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H6">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I6">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J6">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="N6">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="O6">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="P6">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="Q6">
-        <v>11.143921849108</v>
+        <v>2.598699255823999</v>
       </c>
       <c r="R6">
-        <v>100.295296641972</v>
+        <v>23.388293302416</v>
       </c>
       <c r="S6">
-        <v>0.003264367330204585</v>
+        <v>0.0009657889574238204</v>
       </c>
       <c r="T6">
-        <v>0.003536568720497053</v>
+        <v>0.0009862482838318538</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.901559</v>
       </c>
       <c r="I7">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J7">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="N7">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="O7">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="P7">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="Q7">
-        <v>608.7565630224345</v>
+        <v>563.1541472365952</v>
       </c>
       <c r="R7">
-        <v>5478.809067201912</v>
+        <v>5068.387325129357</v>
       </c>
       <c r="S7">
-        <v>0.1783218747659404</v>
+        <v>0.2092924202404773</v>
       </c>
       <c r="T7">
-        <v>0.193191360127383</v>
+        <v>0.2137260823853097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.901559</v>
       </c>
       <c r="I8">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J8">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>367.061969</v>
       </c>
       <c r="O8">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="P8">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="Q8">
         <v>770.8937181899634</v>
@@ -948,10 +948,10 @@
         <v>6938.043463709671</v>
       </c>
       <c r="S8">
-        <v>0.2258163959504691</v>
+        <v>0.286497423165338</v>
       </c>
       <c r="T8">
-        <v>0.2446462428123111</v>
+        <v>0.2925666003396508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.901559</v>
       </c>
       <c r="I9">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J9">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="N9">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="O9">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="P9">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="Q9">
-        <v>527.6297465851314</v>
+        <v>569.1550834936315</v>
       </c>
       <c r="R9">
-        <v>4748.667719266183</v>
+        <v>5122.395751442684</v>
       </c>
       <c r="S9">
-        <v>0.1545575543796991</v>
+        <v>0.2115226275098491</v>
       </c>
       <c r="T9">
-        <v>0.1674454364489396</v>
+        <v>0.2160035344881732</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.901559</v>
       </c>
       <c r="I10">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J10">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="N10">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="O10">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="P10">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="Q10">
-        <v>268.208302312455</v>
+        <v>117.404897852333</v>
       </c>
       <c r="R10">
-        <v>1609.24981387473</v>
+        <v>704.4293871139979</v>
       </c>
       <c r="S10">
-        <v>0.07856573579870299</v>
+        <v>0.04363273419928752</v>
       </c>
       <c r="T10">
-        <v>0.05674466047526886</v>
+        <v>0.02970470162737947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>18.901559</v>
       </c>
       <c r="I11">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J11">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="N11">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="O11">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="P11">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="Q11">
-        <v>701.3815233262873</v>
+        <v>606.5929078642242</v>
       </c>
       <c r="R11">
-        <v>6312.433709936586</v>
+        <v>5459.336170778018</v>
       </c>
       <c r="S11">
-        <v>0.2054543240482903</v>
+        <v>0.2254361410824792</v>
       </c>
       <c r="T11">
-        <v>0.2225862663178017</v>
+        <v>0.2302117926977935</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H12">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I12">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J12">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="N12">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="O12">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="P12">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="Q12">
-        <v>102.641756060116</v>
+        <v>10.27291675156583</v>
       </c>
       <c r="R12">
-        <v>615.8505363606961</v>
+        <v>61.637500509395</v>
       </c>
       <c r="S12">
-        <v>0.03006664976067564</v>
+        <v>0.003817859853140472</v>
       </c>
       <c r="T12">
-        <v>0.02171585125441578</v>
+        <v>0.002599158404208838</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H13">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I13">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J13">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>367.061969</v>
       </c>
       <c r="O13">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="P13">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="Q13">
-        <v>129.9795185416572</v>
+        <v>14.06244991736417</v>
       </c>
       <c r="R13">
-        <v>779.8771112499431</v>
+        <v>84.37469950418499</v>
       </c>
       <c r="S13">
-        <v>0.03807464729816544</v>
+        <v>0.005226214158517328</v>
       </c>
       <c r="T13">
-        <v>0.02749968433040091</v>
+        <v>0.003557951044518276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H14">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I14">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J14">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="N14">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="O14">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="P14">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="Q14">
-        <v>88.96305523207319</v>
+        <v>10.38238432612333</v>
       </c>
       <c r="R14">
-        <v>533.7783313924391</v>
+        <v>62.29430595674</v>
       </c>
       <c r="S14">
-        <v>0.02605977455934968</v>
+        <v>0.003858542734957852</v>
       </c>
       <c r="T14">
-        <v>0.01882185719256968</v>
+        <v>0.002626854877691514</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H15">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I15">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J15">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="N15">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="O15">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="P15">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="Q15">
-        <v>45.22229871752251</v>
+        <v>2.1416707091325</v>
       </c>
       <c r="R15">
-        <v>180.88919487009</v>
+        <v>8.566682836529999</v>
       </c>
       <c r="S15">
-        <v>0.01324687991616249</v>
+        <v>0.0007959373970199408</v>
       </c>
       <c r="T15">
-        <v>0.006378435379049876</v>
+        <v>0.0003612438127234681</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H16">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I16">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J16">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="N16">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="O16">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="P16">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="Q16">
-        <v>118.259145930023</v>
+        <v>11.0653157313275</v>
       </c>
       <c r="R16">
-        <v>709.5548755801382</v>
+        <v>66.39189438796498</v>
       </c>
       <c r="S16">
-        <v>0.03464142136843536</v>
+        <v>0.004112349560948179</v>
       </c>
       <c r="T16">
-        <v>0.02502001252771363</v>
+        <v>0.002799643866861897</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H17">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I17">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J17">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="N17">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="O17">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="P17">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="Q17">
-        <v>1.304048689146666</v>
+        <v>0.937172097885</v>
       </c>
       <c r="R17">
-        <v>11.73643820232</v>
+        <v>8.434548880965</v>
       </c>
       <c r="S17">
-        <v>0.0003819924435478008</v>
+        <v>0.0003482936554949892</v>
       </c>
       <c r="T17">
-        <v>0.0004138451315871742</v>
+        <v>0.0003556719274547626</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H18">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I18">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J18">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>367.061969</v>
       </c>
       <c r="O18">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="P18">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="Q18">
-        <v>1.651371013867778</v>
+        <v>1.282881581655</v>
       </c>
       <c r="R18">
-        <v>14.86233912481</v>
+        <v>11.545934234895</v>
       </c>
       <c r="S18">
-        <v>0.0004837328958968143</v>
+        <v>0.0004767742409853974</v>
       </c>
       <c r="T18">
-        <v>0.0005240692776437369</v>
+        <v>0.0004868742527367036</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H19">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I19">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J19">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="N19">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="O19">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="P19">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="Q19">
-        <v>1.130262770347778</v>
+        <v>0.94715854662</v>
       </c>
       <c r="R19">
-        <v>10.17236493313</v>
+        <v>8.524426919579998</v>
       </c>
       <c r="S19">
-        <v>0.0003310856727127121</v>
+        <v>0.000352005051452227</v>
       </c>
       <c r="T19">
-        <v>0.0003586934665980496</v>
+        <v>0.0003594619458281451</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H20">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I20">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J20">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="N20">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="O20">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="P20">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="Q20">
-        <v>0.57454277505</v>
+        <v>0.195379178085</v>
       </c>
       <c r="R20">
-        <v>3.4472566503</v>
+        <v>1.17227506851</v>
       </c>
       <c r="S20">
-        <v>0.0001682996964689253</v>
+        <v>7.261134672746247E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001215556506552521</v>
+        <v>4.943303299422134E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H21">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I21">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J21">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="N21">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="O21">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="P21">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="Q21">
-        <v>1.502465372273333</v>
+        <v>1.009460643795</v>
       </c>
       <c r="R21">
-        <v>13.52218835046</v>
+        <v>9.085145794154998</v>
       </c>
       <c r="S21">
-        <v>0.0004401142562216837</v>
+        <v>0.0003751592034154105</v>
       </c>
       <c r="T21">
-        <v>0.0004768134693655581</v>
+        <v>0.0003831065966203684</v>
       </c>
     </row>
   </sheetData>
